--- a/silver/excel/int_flights_metrics.xlsx
+++ b/silver/excel/int_flights_metrics.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>fixed_cost</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>ingestion_time</t>
         </is>
       </c>
@@ -530,26 +535,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL6679</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RT0983</t>
+          <t>RT6565</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>679</v>
+        <v>1024</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -558,21 +563,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45839.58333333334</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45793.54083333333</v>
+        <v>45839.66805555556</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>45793</v>
+        <v>45839</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -582,11 +587,11 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Boeing 737-800</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -596,19 +601,22 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>45835.72994212963</v>
+      <c r="Q2" t="n">
+        <v>7461.07</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL1976</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RT0983</t>
+          <t>RT5358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -618,11 +626,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>679</v>
+        <v>1846</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -631,21 +639,21 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45797.6875</v>
+        <v>45838.52083333334</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45797.94166666667</v>
+        <v>45838.67430555556</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>45797</v>
+        <v>45838</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -655,11 +663,11 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Boeing 737-800</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -669,19 +677,22 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="2" t="n">
-        <v>45835.72994212963</v>
+      <c r="Q3" t="n">
+        <v>9362.77</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL4876</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RT2741</t>
+          <t>RT4447</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -704,21 +715,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Long-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45819.70833333334</v>
+        <v>45837.53125</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45819.855</v>
+        <v>45837.7375</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>45819</v>
+        <v>45837</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -728,47 +739,50 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Boeing 737-800</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>45835.72994212963</v>
+        <v>38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9278.299999999999</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RT4127</t>
+          <t>RT6565</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1258</v>
+        <v>1024</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -781,17 +795,17 @@
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45803.65625</v>
+        <v>45836.19791666666</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45803.9225</v>
+        <v>45836.28263888889</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>45803</v>
+        <v>45836</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>AC3488</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -801,11 +815,11 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Boeing 737-800</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -815,92 +829,98 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="2" t="n">
-        <v>45835.72994212963</v>
+      <c r="Q5" t="n">
+        <v>7301.6</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL3066</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RT8820</t>
+          <t>RT6474</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5476</v>
+        <v>1258</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Domestic</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Long-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45752.94791666666</v>
+        <v>45836.60416666666</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45753.26875</v>
+        <v>45836.70833333334</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>45752</v>
+        <v>45836</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>AC0944</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>wide-body</t>
+          <t>narrow-body</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Boeing 787-9 Dreamliner</t>
+          <t>Boeing 737-800</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>45835.72994212963</v>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7314.85</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL5388</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RT0983</t>
+          <t>RT5358</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -910,11 +930,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>679</v>
+        <v>1846</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -923,71 +943,74 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45792.86458333334</v>
+        <v>45835.625</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>45792.915</v>
+        <v>45835.77847222222</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>45792</v>
+        <v>45835</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>AC1979</t>
+          <t>AC7432</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>wide-body</t>
+          <t>narrow-body</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Airbus A350-900</t>
+          <t>Boeing 737-800</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>45835.72994212963</v>
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9036.57</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL5301</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RT0983</t>
+          <t>RT6474</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>679</v>
+        <v>1258</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -996,71 +1019,74 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45754.30208333334</v>
+        <v>45837.41666666666</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45754.48708333333</v>
+        <v>45837.52083333334</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>45754</v>
+        <v>45837</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>AC1979</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>wide-body</t>
+          <t>narrow-body</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Airbus A350-900</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>45835.72994212963</v>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8055.8</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL7875</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RT4127</t>
+          <t>RT4447</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>JFK</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1258</v>
+        <v>2475</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1073,67 +1099,70 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45754.25</v>
+        <v>45835.20833333334</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45754.38208333333</v>
+        <v>45835.41458333333</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>45754</v>
+        <v>45835</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>AC9519</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>regional jet</t>
+          <t>narrow-body</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Bombardier CRJ700</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>45835.72994212963</v>
+        <v>14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9419.91</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL6369</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RT2741</t>
+          <t>RT5358</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2475</v>
+        <v>1846</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1142,21 +1171,21 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Long-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45757.16666666666</v>
+        <v>45834.55208333334</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45757.29041666666</v>
+        <v>45834.70555555556</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>45757</v>
+        <v>45834</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>AC4136</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1174,25 +1203,28 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>45835.72994212963</v>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9357.5</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL7466</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RT0983</t>
+          <t>RT5358</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1202,11 +1234,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>679</v>
+        <v>1846</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1215,21 +1247,21 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45828.73958333334</v>
+        <v>45834.5625</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45828.86625</v>
+        <v>45834.71597222222</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>45828</v>
+        <v>45834</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>AC4136</t>
+          <t>AC9250</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1251,10 +1283,1153 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>45835.72994212963</v>
+        <v>110</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9378.610000000001</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL3108</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RT6474</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1258</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45834.42708333334</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>45834.53125</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>45834</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Boeing 757-200</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7307.48</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL4736</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>732</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Short-haul</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45833.90625</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45833.96666666667</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Boeing 757-200</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7036.96</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL5961</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3625</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45838.9375</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45839.23958333334</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>wide-body</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Airbus A350-900</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1350</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17189.38</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL2734</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3625</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45837.38541666666</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>45837.6875</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>45837</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>wide-body</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Airbus A350-900</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>18445.27</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3625</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45835.3125</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>45835.61458333334</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>wide-body</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Airbus A350-900</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1350</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>16922.66</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL5705</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45839.36458333334</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>45839.44930555556</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Airbus A321XLR</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>890</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7313.89</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL1524</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1846</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45838.1875</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>45838.34097222222</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Airbus A321XLR</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>890</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9082.73</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL5421</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2475</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45838.375</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45838.58125</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Airbus A321XLR</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>890</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9346.049999999999</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL6133</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2475</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45833.51041666666</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45833.71666666667</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>AC7421</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Airbus A321XLR</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>890</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9785.889999999999</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL8299</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>732</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Short-haul</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45838.64583333334</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45838.70625</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>AC7979</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>regional jet</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CRJ700</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>500</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4308.83</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL5785</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>732</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Short-haul</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45839.83333333334</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45839.89375</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>45839</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Airbus A320neo</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>790</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6747.72</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL5235</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2475</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45838.94791666666</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45839.15416666667</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>45838</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Airbus A320neo</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>790</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9345.42</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5689</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Medium-haul</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45835.27083333334</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45835.35555555556</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>45835</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Airbus A320neo</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>790</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7315.79</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL8121</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>732</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Domestic</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Short-haul</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45833.64583333334</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45833.70625</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>45833</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>AC5682</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>narrow-body</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Airbus A320neo</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>790</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>7068.63</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>45840.65451388889</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3625</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Long-haul</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45837.46875</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45837.77083333334</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>45837</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>AC4686</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>wide-body</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Airbus A350-900</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>1350</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>19506.71</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>45840.65451388889</v>
       </c>
     </row>
   </sheetData>

--- a/silver/excel/int_flights_metrics.xlsx
+++ b/silver/excel/int_flights_metrics.xlsx
@@ -535,139 +535,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL6679</t>
+          <t>FL1013</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RT6565</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>JFK</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1024</v>
+        <v>3625</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Medium-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45839.58333333334</v>
+        <v>45860.4375</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45839.66805555556</v>
+        <v>45860.73958333334</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>45839</v>
+        <v>45860</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>AC7432</t>
+          <t>AC2035</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>narrow-body</t>
+          <t>wide-body</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Boeing 737-800</t>
+          <t>Airbus A350-900</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>850</v>
+        <v>1350</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>7461.07</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>18359.32</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL1976</t>
+          <t>FL1020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>JFK</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1846</v>
+        <v>3625</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Medium-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45838.52083333334</v>
+        <v>45834.375</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45838.67430555556</v>
+        <v>45834.67708333334</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>45838</v>
+        <v>45834</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>AC7432</t>
+          <t>AC9717</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>narrow-body</t>
+          <t>wide-body</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Boeing 737-800</t>
+          <t>Airbus A350-1000</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>850</v>
+        <v>1450</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -678,35 +676,33 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9362.77</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>17719.09</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL4876</t>
+          <t>FL1023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT6772</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2475</v>
+        <v>1258</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -719,17 +715,17 @@
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45837.53125</v>
+        <v>45777.17708333334</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45837.7375</v>
+        <v>45777.28125</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>45837</v>
+        <v>45777</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>AC7432</t>
+          <t>AC5545</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -739,50 +735,48 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Boeing 737-800</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9278.299999999999</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7653.13</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1198</t>
+          <t>FL1041</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RT6565</t>
+          <t>RT6772</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1024</v>
+        <v>1258</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -795,17 +789,17 @@
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45836.19791666666</v>
+        <v>45857.80208333334</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45836.28263888889</v>
+        <v>45857.90625</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>45836</v>
+        <v>45857</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>AC7432</t>
+          <t>AC6692</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -815,11 +809,11 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Boeing 737-800</t>
+          <t>Airbus A321XLR</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -830,21 +824,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>7301.6</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>8105.21</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL3066</t>
+          <t>FL1042</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RT6474</t>
+          <t>RT6772</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -871,17 +863,17 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45836.60416666666</v>
+        <v>45852.55208333334</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45836.70833333334</v>
+        <v>45852.65625</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>45836</v>
+        <v>45852</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>AC7432</t>
+          <t>AC1586</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -906,35 +898,33 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7314.85</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7828.7</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL5388</t>
+          <t>FL1049</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT6772</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1846</v>
+        <v>1258</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -947,17 +937,17 @@
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45835.625</v>
+        <v>45783.40625</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>45835.77847222222</v>
+        <v>45783.51041666666</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>45835</v>
+        <v>45783</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>AC7432</t>
+          <t>AC5545</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -967,50 +957,48 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Boeing 737-800</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9036.57</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7297.75</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL5301</t>
+          <t>FL1051</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RT6474</t>
+          <t>RT3577</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1258</v>
+        <v>1024</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1023,17 +1011,17 @@
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45837.41666666666</v>
+        <v>45861.25</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45837.52083333334</v>
+        <v>45861.33472222222</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>45837</v>
+        <v>45861</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>AC9250</t>
+          <t>AC9038</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1058,111 +1046,107 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8055.8</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7025.07</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL7875</t>
+          <t>FL1057</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT7144</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2475</v>
+        <v>8446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Medium-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45835.20833333334</v>
+        <v>45805.69791666666</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45835.41458333333</v>
+        <v>45806.40138888889</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>45835</v>
+        <v>45805</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>AC9250</t>
+          <t>AC2035</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>narrow-body</t>
+          <t>wide-body</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Boeing 757-200</t>
+          <t>Airbus A350-900</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9419.91</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>32456.12</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL6369</t>
+          <t>FL1076</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT6772</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1846</v>
+        <v>1258</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1175,17 +1159,17 @@
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45834.55208333334</v>
+        <v>45853.38541666666</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45834.70555555556</v>
+        <v>45853.48958333334</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>45834</v>
+        <v>45853</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>AC9250</t>
+          <t>AC9038</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1210,21 +1194,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9357.5</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7429.86</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL7466</t>
+          <t>FL1088</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT9374</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1234,87 +1216,77 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1846</v>
+        <v>8446</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Medium-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45834.5625</v>
+        <v>45835.60416666666</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45834.71597222222</v>
+        <v>45836.30763888889</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>narrow-body</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Boeing 757-200</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>1000</v>
-      </c>
+          <t>AC4709</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9378.610000000001</v>
+        <v>32867.98</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>45840.65451388889</v>
+        <v>45846.68659722222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL3108</t>
+          <t>FL1091</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RT6474</t>
+          <t>RT6565</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1258</v>
+        <v>1024</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1327,32 +1299,22 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45834.42708333334</v>
+        <v>45839.54166666666</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45834.53125</v>
+        <v>45839.62638888889</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>45834</v>
+        <v>45839</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>AC9250</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>narrow-body</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Boeing 757-200</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>1000</v>
-      </c>
+          <t>AC2808</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>on-time</t>
@@ -1362,35 +1324,35 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7307.48</v>
+        <v>7305.69</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>45840.65451388889</v>
+        <v>45846.68659722222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL4736</t>
+          <t>FL1098</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RT7502</t>
+          <t>RT5358</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>732</v>
+        <v>1846</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1399,111 +1361,101 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45833.90625</v>
+        <v>45841.4375</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>45833.96666666667</v>
+        <v>45841.59097222222</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>45833</v>
+        <v>45841</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>AC9250</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>narrow-body</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Boeing 757-200</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>1000</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7036.96</v>
+        <v>9100.58</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>45840.65451388889</v>
+        <v>45846.68659722222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL5961</t>
+          <t>FL1101</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT3577</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3625</v>
+        <v>1024</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Domestic</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Long-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45838.9375</v>
+        <v>45833.82291666666</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>45839.23958333334</v>
+        <v>45833.90763888889</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>45838</v>
+        <v>45833</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>AC4709</t>
+          <t>AC9548</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>wide-body</t>
+          <t>narrow-body</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Airbus A350-900</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1514,111 +1466,99 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>17189.38</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7219.03</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL2734</t>
+          <t>FL1108</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT6565</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3625</v>
+        <v>1024</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Domestic</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Long-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45837.38541666666</v>
+        <v>45829.21875</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>45837.6875</v>
+        <v>45829.30347222222</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>45837</v>
+        <v>45829</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>AC4709</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>wide-body</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Airbus A350-900</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>1350</v>
-      </c>
+          <t>AC9250</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>18445.27</v>
+        <v>7407.5</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>45840.65451388889</v>
+        <v>45846.68659722222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL1013</t>
+          <t>FL1111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT7144</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3625</v>
+        <v>8446</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1631,17 +1571,17 @@
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45835.3125</v>
+        <v>45851.94791666666</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45835.61458333334</v>
+        <v>45852.65138888889</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>45835</v>
+        <v>45851</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>AC4709</t>
+          <t>AC5517</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1666,35 +1606,33 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16922.66</v>
-      </c>
-      <c r="R16" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>30417.7</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL5705</t>
+          <t>FL1116</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RT6565</t>
+          <t>RT6772</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1024</v>
+        <v>1258</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1707,17 +1645,17 @@
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45839.36458333334</v>
+        <v>45823.84375</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45839.44930555556</v>
+        <v>45823.94791666666</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>45839</v>
+        <v>45823</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>AC7421</t>
+          <t>AC9548</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1727,87 +1665,85 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Airbus A321XLR</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>890</v>
+        <v>1000</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="n">
-        <v>7313.89</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7689.84</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL1524</t>
+          <t>FL1137</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>JFK</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1846</v>
+        <v>3625</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Medium-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45838.1875</v>
+        <v>45779.35416666666</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45838.34097222222</v>
+        <v>45779.65625</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>45838</v>
+        <v>45779</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>AC7421</t>
+          <t>AC7731</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>narrow-body</t>
+          <t>wide-body</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Airbus A321XLR</t>
+          <t>Airbus A350-1000</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>890</v>
+        <v>1450</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1818,16 +1754,14 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9082.73</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>18701.02</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL5421</t>
+          <t>FL1152</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1835,56 +1769,28 @@
           <t>RT4447</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>JFK</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>2475</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Domestic</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Medium-haul</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" s="2" t="n">
-        <v>45838.375</v>
+        <v>45772.67708333334</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>45838.58125</v>
+        <v>45772.88333333333</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>45838</v>
+        <v>45772</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>AC7421</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>narrow-body</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Airbus A321XLR</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>890</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
           <t>on-time</t>
@@ -1894,21 +1800,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9346.049999999999</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>9829.74</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL6133</t>
+          <t>FL1160</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1918,87 +1822,85 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2475</v>
+        <v>3625</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Medium-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45833.51041666666</v>
+        <v>45805.21875</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45833.71666666667</v>
+        <v>45805.52083333334</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>45833</v>
+        <v>45805</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>AC7421</t>
+          <t>AC5517</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>narrow-body</t>
+          <t>wide-body</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Airbus A321XLR</t>
+          <t>Airbus A350-900</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>890</v>
+        <v>1350</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9785.889999999999</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>17722.02</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL8299</t>
+          <t>FL1164</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RT7502</t>
+          <t>RT6565</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>732</v>
+        <v>1024</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2007,36 +1909,26 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45838.64583333334</v>
+        <v>45831.27083333334</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45838.70625</v>
+        <v>45831.35555555556</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>45838</v>
+        <v>45831</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AC7979</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>regional jet</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>CRJ700</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>500</v>
-      </c>
+          <t>AC9894</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
           <t>on-time</t>
@@ -2046,35 +1938,35 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>4308.83</v>
+        <v>7392.76</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>45840.65451388889</v>
+        <v>45846.68659722222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL5785</t>
+          <t>FL1165</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RT7502</t>
+          <t>RT3577</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>732</v>
+        <v>1024</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2083,21 +1975,21 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Medium-haul</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45839.83333333334</v>
+        <v>45830.82291666666</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45839.89375</v>
+        <v>45830.90763888889</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>45839</v>
+        <v>45830</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>AC5682</t>
+          <t>AC9038</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2107,50 +1999,48 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>6747.72</v>
-      </c>
-      <c r="R22" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>7410.22</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL5235</t>
+          <t>FL1170</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT6628</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2475</v>
+        <v>1846</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2163,17 +2053,17 @@
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45838.94791666666</v>
+        <v>45855.77083333334</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45839.15416666667</v>
+        <v>45855.92430555556</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>45838</v>
+        <v>45855</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>AC5682</t>
+          <t>AC9548</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2183,11 +2073,11 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Boeing 757-200</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2198,72 +2088,70 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9345.42</v>
-      </c>
-      <c r="R23" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>8435.74</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL5689</t>
+          <t>FL1171</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RT6565</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>JFK</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1024</v>
+        <v>3625</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Medium-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45835.27083333334</v>
+        <v>45845.80208333334</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45835.35555555556</v>
+        <v>45846.10416666666</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>AC5682</t>
+          <t>AC2035</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>narrow-body</t>
+          <t>wide-body</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Airbus A350-900</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>790</v>
+        <v>1350</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2274,111 +2162,107 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7315.79</v>
-      </c>
-      <c r="R24" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>17751.46</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL8121</t>
+          <t>FL1183</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RT7502</t>
+          <t>RT7144</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>732</v>
+        <v>8446</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>International</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Short-haul</t>
+          <t>Long-haul</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45833.64583333334</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45833.70625</v>
+        <v>45777.49513888889</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>45833</v>
+        <v>45776</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>AC5682</t>
+          <t>AC9717</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>narrow-body</t>
+          <t>wide-body</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Airbus A320neo</t>
+          <t>Airbus A350-1000</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q25" t="n">
-        <v>7068.63</v>
-      </c>
-      <c r="R25" s="2" t="n">
-        <v>45840.65451388889</v>
-      </c>
+        <v>32033.04</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL1990</t>
+          <t>FL1189</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT9374</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JFK</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>SIN</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3625</v>
+        <v>8446</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2391,32 +2275,22 @@
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45837.46875</v>
+        <v>45840.75</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45837.77083333334</v>
+        <v>45841.45347222222</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>45837</v>
+        <v>45840</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>AC4686</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>wide-body</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Airbus A350-900</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>1350</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>on-time</t>
@@ -2426,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>19506.71</v>
+        <v>29226.86</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>45840.65451388889</v>
+        <v>45846.68659722222</v>
       </c>
     </row>
   </sheetData>
